--- a/COMP1131_Assignment_5/UML Diagrams.xlsx
+++ b/COMP1131_Assignment_5/UML Diagrams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolRepo\COMP1131\COMP1131_Assignment_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SchoolRepos\COMP1131\COMP1131_Assignment_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF55A0-D827-4A25-8640-E646DA1D9338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F25D91-B377-44CC-A9CC-5D6670EFFC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="2" xr2:uid="{741BFA9E-18A1-4539-9B53-DF4C036A22C3}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{741BFA9E-18A1-4539-9B53-DF4C036A22C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 5 Q1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>Name:</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>+CardsRemaining(): String</t>
+  </si>
+  <si>
+    <t>PascalsTriangle</t>
+  </si>
+  <si>
+    <t>rows: int</t>
+  </si>
+  <si>
+    <t>- calcArray(int, long[][]):void</t>
   </si>
 </sst>
 </file>
@@ -181,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -256,11 +265,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -287,6 +324,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -680,191 +730,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>881743</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>188685</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Down 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B681A6-A4AB-47F1-96BD-EADD14AEBB57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3891643" y="3202213"/>
-          <a:ext cx="65314" cy="170543"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68943</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428172</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>141513</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Arrow: Right 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF285DCD-036A-4E7F-A3E0-B127FF14AFDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2654300" y="1594757"/>
-          <a:ext cx="359229" cy="76199"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>105228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>181427</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Arrow: Right 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841B4D02-850E-41B6-8379-F912D20478E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4949371" y="551542"/>
-          <a:ext cx="359229" cy="76199"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1185,23 +1050,23 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.921875" customWidth="1"/>
-    <col min="2" max="2" width="23.84375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.69140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1241,8 +1106,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
@@ -1250,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1291,12 +1156,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1304,7 +1169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1312,25 +1177,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1347,26 +1212,26 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.921875" customWidth="1"/>
-    <col min="2" max="2" width="24.61328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.921875" customWidth="1"/>
-    <col min="4" max="4" width="24.61328125" customWidth="1"/>
-    <col min="5" max="5" width="5.3828125" customWidth="1"/>
-    <col min="6" max="6" width="25.69140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1382,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1406,8 +1271,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +1283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1429,7 +1294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1440,14 +1305,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1459,7 +1324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
@@ -1478,35 +1343,34 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="D16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="11"/>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1520,28 +1384,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806956EB-05FF-445F-83B5-A7A690A22CE9}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.921875" customWidth="1"/>
-    <col min="2" max="2" width="24.61328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.921875" customWidth="1"/>
-    <col min="4" max="4" width="24.61328125" customWidth="1"/>
-    <col min="6" max="6" width="25.69140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1549,126 +1413,163 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="6"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D15" s="9"/>
-      <c r="F15" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="11"/>
-      <c r="D17" s="9"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D20" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D21" s="6"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="11"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="16"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="16"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>